--- a/data/BOC/APEP/URIN/old/pov01_100_1.xlsx
+++ b/data/BOC/APEP/URIN/old/pov01_100_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="69">
   <si>
     <t>|~CLEAR^Table with row headers in column A and column headers in rows 8 through 9, 25 through 26, 42 through 43, and 59 through 60|</t>
   </si>
@@ -25,13 +25,13 @@
     <t>Table with row headers in column A and column headers in rows 8 through 9, 25 through 26, 42 through 43, and 59 through 60</t>
   </si>
   <si>
-    <t>POV01: Age and Sex of All People, Family Members and Unrelated Individuals: 2019</t>
+    <t>POV01: Age and Sex of All People, Family Members and Unrelated Individuals: 2020</t>
   </si>
   <si>
     <t>Below 100% of Poverty -- All Races (1)</t>
   </si>
   <si>
-    <t>For information on confidentiality protection, sampling error, nonsampling error, and definitions, see &lt;|~UL^https://www2.census.gov/programs-surveys/cps/techdocs/cpsmar20.pdf|~NORM^&gt;.</t>
+    <t>Information on confidentiality protection, sampling error, nonsampling error, and definitions is available at &lt;|~UL^https://www2.census.gov/programs-surveys/cps/techdocs/cpsmar21.pdf|~NORM^&gt;.</t>
   </si>
   <si>
     <r>
@@ -41,7 +41,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>For information on confidentiality protection, sampling error, nonsampling error, and definitions, see &lt;</t>
+      <t>Information on confidentiality protection, sampling error, nonsampling error, and definitions is available at &lt;</t>
     </r>
     <r>
       <rPr>
@@ -51,7 +51,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>https://www2.census.gov/programs-surveys/cps/techdocs/cpsmar20.pdf</t>
+      <t>https://www2.census.gov/programs-surveys/cps/techdocs/cpsmar21.pdf</t>
     </r>
     <r>
       <rPr>
@@ -64,7 +64,7 @@
     </r>
   </si>
   <si>
-    <t>Source: U.S. Census Bureau, Current Population Survey, 2020 Annual Social and Economic Supplement (CPS ASEC).</t>
+    <t>Source: U.S. Census Bureau, Current Population Survey, 2021 Annual Social and Economic Supplement (CPS ASEC).</t>
   </si>
   <si>
     <t>(Population in thousands. Population as of March of the following year)</t>
@@ -407,10 +407,10 @@
     </r>
   </si>
   <si>
+    <t>(Z)</t>
+  </si>
+  <si>
     <t>(B)</t>
-  </si>
-  <si>
-    <t>(Z)</t>
   </si>
   <si>
     <t>(X)</t>
@@ -644,8 +644,8 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="##0.0"/>
     <numFmt numFmtId="164" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="\(\B\)"/>
-    <numFmt numFmtId="168" formatCode="\(\X\)"/>
+    <numFmt numFmtId="167" formatCode="\(\X\)"/>
+    <numFmt numFmtId="168" formatCode="\(\B\)"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1280,40 +1280,40 @@
         <v>17</v>
       </c>
       <c r="B10" s="7">
-        <v>324754</v>
+        <v>325713</v>
       </c>
       <c r="C10" s="7">
-        <v>33984</v>
+        <v>37247</v>
       </c>
       <c r="D10" s="8">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="E10" s="7">
-        <v>263696</v>
+        <v>262398</v>
       </c>
       <c r="F10" s="7">
-        <v>22431</v>
+        <v>24982</v>
       </c>
       <c r="G10" s="8">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H10" s="7">
-        <v>941</v>
+        <v>1023</v>
       </c>
       <c r="I10" s="7">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="J10" s="8">
-        <v>26.9</v>
+        <v>34.1</v>
       </c>
       <c r="K10" s="7">
-        <v>60117</v>
+        <v>62293</v>
       </c>
       <c r="L10" s="7">
-        <v>11300</v>
+        <v>11916</v>
       </c>
       <c r="M10" s="8">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1321,40 +1321,40 @@
         <v>31</v>
       </c>
       <c r="B11" s="7">
-        <v>72637</v>
+        <v>72295</v>
       </c>
       <c r="C11" s="7">
-        <v>10466</v>
+        <v>11607</v>
       </c>
       <c r="D11" s="8">
-        <v>14.4</v>
+        <v>16.1</v>
       </c>
       <c r="E11" s="7">
-        <v>72009</v>
+        <v>71665</v>
       </c>
       <c r="F11" s="7">
-        <v>10185</v>
+        <v>11303</v>
       </c>
       <c r="G11" s="8">
-        <v>14.1</v>
+        <v>15.8</v>
       </c>
       <c r="H11" s="7">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="I11" s="7">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="J11" s="8">
-        <v>29.9</v>
+        <v>38.2</v>
       </c>
       <c r="K11" s="7">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="M11" s="8">
-        <v>91.7</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1362,39 +1362,39 @@
         <v>32</v>
       </c>
       <c r="B12" s="7">
-        <v>19255</v>
+        <v>18941</v>
       </c>
       <c r="C12" s="7">
-        <v>3015</v>
+        <v>3339</v>
       </c>
       <c r="D12" s="8">
-        <v>15.7</v>
+        <v>17.6</v>
       </c>
       <c r="E12" s="7">
-        <v>19194</v>
+        <v>18844</v>
       </c>
       <c r="F12" s="7">
-        <v>2986</v>
+        <v>3292</v>
       </c>
       <c r="G12" s="8">
-        <v>15.6</v>
+        <v>17.5</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="7">
+        <v>47</v>
+      </c>
+      <c r="J12" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1403,40 +1403,40 @@
         <v>33</v>
       </c>
       <c r="B13" s="7">
-        <v>53382</v>
+        <v>53354</v>
       </c>
       <c r="C13" s="7">
-        <v>7451</v>
+        <v>8268</v>
       </c>
       <c r="D13" s="8">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="E13" s="7">
-        <v>52815</v>
+        <v>52822</v>
       </c>
       <c r="F13" s="7">
-        <v>7199</v>
+        <v>8011</v>
       </c>
       <c r="G13" s="8">
-        <v>13.6</v>
+        <v>15.2</v>
       </c>
       <c r="H13" s="7">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I13" s="7">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="J13" s="8">
-        <v>27.3</v>
+        <v>35.7</v>
       </c>
       <c r="K13" s="7">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="M13" s="8">
-        <v>91.7</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1444,40 +1444,40 @@
         <v>34</v>
       </c>
       <c r="B14" s="7">
-        <v>197475</v>
+        <v>197582</v>
       </c>
       <c r="C14" s="7">
-        <v>18660</v>
+        <v>20640</v>
       </c>
       <c r="D14" s="8">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="E14" s="7">
-        <v>153804</v>
+        <v>152289</v>
       </c>
       <c r="F14" s="7">
-        <v>10244</v>
+        <v>11576</v>
       </c>
       <c r="G14" s="8">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="H14" s="7">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="I14" s="7">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="J14" s="8">
-        <v>24.7</v>
+        <v>30.6</v>
       </c>
       <c r="K14" s="7">
-        <v>43222</v>
+        <v>44788</v>
       </c>
       <c r="L14" s="7">
-        <v>8306</v>
+        <v>8909</v>
       </c>
       <c r="M14" s="8">
-        <v>19.2</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1485,40 +1485,40 @@
         <v>35</v>
       </c>
       <c r="B15" s="7">
-        <v>29059</v>
+        <v>28838</v>
       </c>
       <c r="C15" s="7">
-        <v>3856</v>
+        <v>4197</v>
       </c>
       <c r="D15" s="8">
-        <v>13.3</v>
+        <v>14.6</v>
       </c>
       <c r="E15" s="7">
-        <v>22926</v>
+        <v>22387</v>
       </c>
       <c r="F15" s="7">
-        <v>1754</v>
+        <v>2045</v>
       </c>
       <c r="G15" s="8">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="H15" s="7">
-        <v>52</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K15" s="7">
-        <v>6081</v>
+        <v>6420</v>
       </c>
       <c r="L15" s="7">
-        <v>2073</v>
+        <v>2138</v>
       </c>
       <c r="M15" s="8">
-        <v>34.1</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1526,40 +1526,40 @@
         <v>36</v>
       </c>
       <c r="B16" s="7">
-        <v>45260</v>
+        <v>45284</v>
       </c>
       <c r="C16" s="7">
-        <v>4537</v>
+        <v>4732</v>
       </c>
       <c r="D16" s="8">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="E16" s="7">
-        <v>31976</v>
+        <v>31500</v>
       </c>
       <c r="F16" s="7">
-        <v>2812</v>
+        <v>3001</v>
       </c>
       <c r="G16" s="8">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="H16" s="7">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="I16" s="7">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="J16" s="8">
-        <v>25.6</v>
+        <v>37.1</v>
       </c>
       <c r="K16" s="7">
-        <v>13119</v>
+        <v>13579</v>
       </c>
       <c r="L16" s="7">
-        <v>1683</v>
+        <v>1655</v>
       </c>
       <c r="M16" s="8">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1567,40 +1567,40 @@
         <v>37</v>
       </c>
       <c r="B17" s="7">
-        <v>41412</v>
+        <v>42004</v>
       </c>
       <c r="C17" s="7">
-        <v>3498</v>
+        <v>4145</v>
       </c>
       <c r="D17" s="8">
-        <v>8.4</v>
+        <v>9.9</v>
       </c>
       <c r="E17" s="7">
-        <v>34561</v>
+        <v>34614</v>
       </c>
       <c r="F17" s="7">
-        <v>2435</v>
+        <v>2848</v>
       </c>
       <c r="G17" s="8">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H17" s="7">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I17" s="7">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J17" s="8">
-        <v>22.8</v>
+        <v>29.4</v>
       </c>
       <c r="K17" s="7">
-        <v>6713</v>
+        <v>7244</v>
       </c>
       <c r="L17" s="7">
-        <v>1031</v>
+        <v>1254</v>
       </c>
       <c r="M17" s="8">
-        <v>15.4</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1608,40 +1608,40 @@
         <v>38</v>
       </c>
       <c r="B18" s="7">
-        <v>39587</v>
+        <v>39680</v>
       </c>
       <c r="C18" s="7">
-        <v>2920</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="8">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="E18" s="7">
-        <v>32245</v>
+        <v>32271</v>
       </c>
       <c r="F18" s="7">
-        <v>1668</v>
+        <v>1833</v>
       </c>
       <c r="G18" s="8">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>44</v>
+        <v>85</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8">
+        <v>20</v>
       </c>
       <c r="K18" s="7">
-        <v>7274</v>
+        <v>7325</v>
       </c>
       <c r="L18" s="7">
-        <v>1245</v>
+        <v>1518</v>
       </c>
       <c r="M18" s="8">
-        <v>17.1</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1649,40 +1649,40 @@
         <v>39</v>
       </c>
       <c r="B19" s="7">
-        <v>21142</v>
+        <v>20682</v>
       </c>
       <c r="C19" s="7">
-        <v>1818</v>
+        <v>1961</v>
       </c>
       <c r="D19" s="8">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="E19" s="7">
-        <v>16442</v>
+        <v>16006</v>
       </c>
       <c r="F19" s="7">
-        <v>781</v>
+        <v>918</v>
       </c>
       <c r="G19" s="8">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K19" s="7">
-        <v>4681</v>
+        <v>4653</v>
       </c>
       <c r="L19" s="7">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M19" s="8">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1690,40 +1690,40 @@
         <v>40</v>
       </c>
       <c r="B20" s="7">
-        <v>21015</v>
+        <v>21094</v>
       </c>
       <c r="C20" s="7">
-        <v>2032</v>
+        <v>2238</v>
       </c>
       <c r="D20" s="8">
-        <v>9.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="E20" s="7">
-        <v>15654</v>
+        <v>15512</v>
       </c>
       <c r="F20" s="7">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="G20" s="8">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K20" s="7">
-        <v>5354</v>
+        <v>5567</v>
       </c>
       <c r="L20" s="7">
-        <v>1236</v>
+        <v>1306</v>
       </c>
       <c r="M20" s="8">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1731,40 +1731,40 @@
         <v>41</v>
       </c>
       <c r="B21" s="7">
-        <v>54642</v>
+        <v>55836</v>
       </c>
       <c r="C21" s="7">
-        <v>4858</v>
+        <v>5000</v>
       </c>
       <c r="D21" s="8">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7">
-        <v>37883</v>
+        <v>38444</v>
       </c>
       <c r="F21" s="7">
-        <v>2003</v>
+        <v>2104</v>
       </c>
       <c r="G21" s="8">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H21" s="7">
-        <v>16</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K21" s="7">
-        <v>16744</v>
+        <v>17384</v>
       </c>
       <c r="L21" s="7">
-        <v>2855</v>
+        <v>2897</v>
       </c>
       <c r="M21" s="8">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1772,40 +1772,40 @@
         <v>42</v>
       </c>
       <c r="B22" s="7">
-        <v>32269</v>
+        <v>33040</v>
       </c>
       <c r="C22" s="7">
-        <v>2563</v>
+        <v>2710</v>
       </c>
       <c r="D22" s="8">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E22" s="7">
-        <v>23776</v>
+        <v>24255</v>
       </c>
       <c r="F22" s="7">
-        <v>1135</v>
+        <v>1245</v>
       </c>
       <c r="G22" s="8">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H22" s="7">
-        <v>16</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K22" s="7">
-        <v>8478</v>
+        <v>8778</v>
       </c>
       <c r="L22" s="7">
-        <v>1428</v>
+        <v>1464</v>
       </c>
       <c r="M22" s="8">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1813,40 +1813,40 @@
         <v>43</v>
       </c>
       <c r="B23" s="7">
-        <v>22373</v>
+        <v>22796</v>
       </c>
       <c r="C23" s="7">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="D23" s="8">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7">
-        <v>14107</v>
+        <v>14188</v>
       </c>
       <c r="F23" s="7">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G23" s="8">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K23" s="7">
-        <v>8266</v>
+        <v>8606</v>
       </c>
       <c r="L23" s="7">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="M23" s="8">
-        <v>17.3</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1935,40 +1935,40 @@
         <v>17</v>
       </c>
       <c r="B27" s="7">
-        <v>159170</v>
+        <v>159699</v>
       </c>
       <c r="C27" s="7">
-        <v>14976</v>
+        <v>16334</v>
       </c>
       <c r="D27" s="8">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="E27" s="7">
-        <v>129524</v>
+        <v>128880</v>
       </c>
       <c r="F27" s="7">
-        <v>10043</v>
+        <v>11061</v>
       </c>
       <c r="G27" s="8">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="H27" s="7">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="I27" s="7">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="J27" s="8">
-        <v>23</v>
+        <v>24.7</v>
       </c>
       <c r="K27" s="7">
-        <v>29318</v>
+        <v>30409</v>
       </c>
       <c r="L27" s="7">
-        <v>4858</v>
+        <v>5172</v>
       </c>
       <c r="M27" s="8">
-        <v>16.6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1976,40 +1976,40 @@
         <v>31</v>
       </c>
       <c r="B28" s="7">
-        <v>37019</v>
+        <v>36829</v>
       </c>
       <c r="C28" s="7">
-        <v>5318</v>
+        <v>5773</v>
       </c>
       <c r="D28" s="8">
-        <v>14.4</v>
+        <v>15.7</v>
       </c>
       <c r="E28" s="7">
-        <v>36724</v>
+        <v>36497</v>
       </c>
       <c r="F28" s="7">
-        <v>5170</v>
+        <v>5638</v>
       </c>
       <c r="G28" s="8">
-        <v>14.1</v>
+        <v>15.4</v>
       </c>
       <c r="H28" s="7">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="I28" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J28" s="8">
-        <v>34.3</v>
+        <v>27</v>
       </c>
       <c r="K28" s="7">
-        <v>87</v>
-      </c>
-      <c r="L28" s="7">
-        <v>76</v>
-      </c>
-      <c r="M28" s="8">
-        <v>87.5</v>
+        <v>74</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2017,39 +2017,39 @@
         <v>32</v>
       </c>
       <c r="B29" s="7">
-        <v>9819</v>
+        <v>9664</v>
       </c>
       <c r="C29" s="7">
-        <v>1518</v>
+        <v>1632</v>
       </c>
       <c r="D29" s="8">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="E29" s="7">
-        <v>9790</v>
+        <v>9608</v>
       </c>
       <c r="F29" s="7">
-        <v>1503</v>
+        <v>1613</v>
       </c>
       <c r="G29" s="8">
-        <v>15.3</v>
+        <v>16.8</v>
       </c>
       <c r="H29" s="7">
-        <v>29</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2058,40 +2058,40 @@
         <v>33</v>
       </c>
       <c r="B30" s="7">
-        <v>27200</v>
+        <v>27165</v>
       </c>
       <c r="C30" s="7">
-        <v>3800</v>
+        <v>4141</v>
       </c>
       <c r="D30" s="8">
-        <v>14</v>
+        <v>15.2</v>
       </c>
       <c r="E30" s="7">
-        <v>26933</v>
+        <v>26890</v>
       </c>
       <c r="F30" s="7">
-        <v>3668</v>
+        <v>4024</v>
       </c>
       <c r="G30" s="8">
-        <v>13.6</v>
+        <v>15</v>
       </c>
       <c r="H30" s="7">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="I30" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J30" s="8">
-        <v>31.6</v>
+        <v>25.3</v>
       </c>
       <c r="K30" s="7">
-        <v>87</v>
-      </c>
-      <c r="L30" s="7">
-        <v>76</v>
-      </c>
-      <c r="M30" s="8">
-        <v>87.5</v>
+        <v>74</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2099,40 +2099,40 @@
         <v>34</v>
       </c>
       <c r="B31" s="7">
-        <v>97275</v>
+        <v>97651</v>
       </c>
       <c r="C31" s="7">
-        <v>7864</v>
+        <v>8641</v>
       </c>
       <c r="D31" s="8">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E31" s="7">
-        <v>74022</v>
+        <v>73455</v>
       </c>
       <c r="F31" s="7">
-        <v>4019</v>
+        <v>4463</v>
       </c>
       <c r="G31" s="8">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="H31" s="7">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="I31" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J31" s="8">
-        <v>3.3</v>
+        <v>21.4</v>
       </c>
       <c r="K31" s="7">
-        <v>23139</v>
+        <v>24048</v>
       </c>
       <c r="L31" s="7">
-        <v>3841</v>
+        <v>4147</v>
       </c>
       <c r="M31" s="8">
-        <v>16.6</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2140,40 +2140,40 @@
         <v>35</v>
       </c>
       <c r="B32" s="7">
-        <v>14634</v>
+        <v>14543</v>
       </c>
       <c r="C32" s="7">
-        <v>1774</v>
+        <v>1808</v>
       </c>
       <c r="D32" s="8">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E32" s="7">
-        <v>11624</v>
+        <v>11422</v>
       </c>
       <c r="F32" s="7">
-        <v>815</v>
+        <v>872</v>
       </c>
       <c r="G32" s="8">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K32" s="7">
-        <v>3004</v>
+        <v>3114</v>
       </c>
       <c r="L32" s="7">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="M32" s="8">
-        <v>31.9</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2181,40 +2181,40 @@
         <v>36</v>
       </c>
       <c r="B33" s="7">
-        <v>22783</v>
+        <v>22837</v>
       </c>
       <c r="C33" s="7">
-        <v>1720</v>
+        <v>1703</v>
       </c>
       <c r="D33" s="8">
         <v>7.5</v>
       </c>
       <c r="E33" s="7">
-        <v>15489</v>
+        <v>15245</v>
       </c>
       <c r="F33" s="7">
-        <v>871</v>
+        <v>975</v>
       </c>
       <c r="G33" s="8">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H33" s="7">
-        <v>36</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K33" s="7">
-        <v>7258</v>
+        <v>7537</v>
       </c>
       <c r="L33" s="7">
-        <v>846</v>
+        <v>713</v>
       </c>
       <c r="M33" s="8">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2222,40 +2222,40 @@
         <v>37</v>
       </c>
       <c r="B34" s="7">
-        <v>20465</v>
+        <v>20814</v>
       </c>
       <c r="C34" s="7">
-        <v>1549</v>
+        <v>1704</v>
       </c>
       <c r="D34" s="8">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E34" s="7">
-        <v>16320</v>
+        <v>16359</v>
       </c>
       <c r="F34" s="7">
-        <v>975</v>
+        <v>1042</v>
       </c>
       <c r="G34" s="8">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H34" s="7">
-        <v>32</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K34" s="7">
-        <v>4113</v>
+        <v>4418</v>
       </c>
       <c r="L34" s="7">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="M34" s="8">
-        <v>13.9</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2263,40 +2263,40 @@
         <v>38</v>
       </c>
       <c r="B35" s="7">
-        <v>19126</v>
+        <v>19424</v>
       </c>
       <c r="C35" s="7">
-        <v>1226</v>
+        <v>1539</v>
       </c>
       <c r="D35" s="8">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="E35" s="7">
-        <v>15152</v>
+        <v>15316</v>
       </c>
       <c r="F35" s="7">
-        <v>662</v>
+        <v>770</v>
       </c>
       <c r="G35" s="8">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H35" s="7">
-        <v>23</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K35" s="7">
-        <v>3950</v>
+        <v>4077</v>
       </c>
       <c r="L35" s="7">
-        <v>564</v>
+        <v>766</v>
       </c>
       <c r="M35" s="8">
-        <v>14.3</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2304,40 +2304,40 @@
         <v>39</v>
       </c>
       <c r="B36" s="7">
-        <v>10162</v>
+        <v>9928</v>
       </c>
       <c r="C36" s="7">
-        <v>752</v>
+        <v>873</v>
       </c>
       <c r="D36" s="8">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E36" s="7">
-        <v>7889</v>
+        <v>7637</v>
       </c>
       <c r="F36" s="7">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="G36" s="8">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="H36" s="7">
-        <v>15</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K36" s="7">
-        <v>2258</v>
+        <v>2281</v>
       </c>
       <c r="L36" s="7">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="M36" s="8">
-        <v>18.5</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2345,40 +2345,40 @@
         <v>40</v>
       </c>
       <c r="B37" s="7">
-        <v>10104</v>
+        <v>10105</v>
       </c>
       <c r="C37" s="7">
-        <v>843</v>
+        <v>1013</v>
       </c>
       <c r="D37" s="8">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="E37" s="7">
-        <v>7546</v>
+        <v>7476</v>
       </c>
       <c r="F37" s="7">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="G37" s="8">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K37" s="7">
-        <v>2555</v>
+        <v>2621</v>
       </c>
       <c r="L37" s="7">
-        <v>479</v>
+        <v>606</v>
       </c>
       <c r="M37" s="8">
-        <v>18.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2386,40 +2386,40 @@
         <v>41</v>
       </c>
       <c r="B38" s="7">
-        <v>24876</v>
+        <v>25219</v>
       </c>
       <c r="C38" s="7">
-        <v>1795</v>
+        <v>1920</v>
       </c>
       <c r="D38" s="8">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="E38" s="7">
-        <v>18779</v>
+        <v>18928</v>
       </c>
       <c r="F38" s="7">
-        <v>854</v>
+        <v>961</v>
       </c>
       <c r="G38" s="8">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="H38" s="7">
-        <v>6</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K38" s="7">
-        <v>6092</v>
+        <v>6287</v>
       </c>
       <c r="L38" s="7">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="M38" s="8">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2427,40 +2427,40 @@
         <v>42</v>
       </c>
       <c r="B39" s="7">
-        <v>15183</v>
+        <v>15342</v>
       </c>
       <c r="C39" s="7">
-        <v>1024</v>
+        <v>1192</v>
       </c>
       <c r="D39" s="8">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="E39" s="7">
-        <v>11689</v>
+        <v>11775</v>
       </c>
       <c r="F39" s="7">
-        <v>466</v>
+        <v>582</v>
       </c>
       <c r="G39" s="8">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H39" s="7">
-        <v>6</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K39" s="7">
-        <v>3488</v>
+        <v>3565</v>
       </c>
       <c r="L39" s="7">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="M39" s="8">
-        <v>16</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2468,40 +2468,40 @@
         <v>43</v>
       </c>
       <c r="B40" s="7">
-        <v>9694</v>
+        <v>9877</v>
       </c>
       <c r="C40" s="7">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="D40" s="8">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="E40" s="7">
-        <v>7090</v>
+        <v>7153</v>
       </c>
       <c r="F40" s="7">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G40" s="8">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K40" s="7">
-        <v>2604</v>
+        <v>2722</v>
       </c>
       <c r="L40" s="7">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="M40" s="8">
-        <v>14.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2590,40 +2590,40 @@
         <v>17</v>
       </c>
       <c r="B44" s="7">
-        <v>165584</v>
+        <v>166014</v>
       </c>
       <c r="C44" s="7">
-        <v>19008</v>
+        <v>20912</v>
       </c>
       <c r="D44" s="8">
-        <v>11.5</v>
+        <v>12.6</v>
       </c>
       <c r="E44" s="7">
-        <v>134172</v>
+        <v>133518</v>
       </c>
       <c r="F44" s="7">
-        <v>12389</v>
+        <v>13921</v>
       </c>
       <c r="G44" s="8">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="H44" s="7">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I44" s="7">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="J44" s="8">
-        <v>29</v>
+        <v>40.4</v>
       </c>
       <c r="K44" s="7">
-        <v>30799</v>
+        <v>31884</v>
       </c>
       <c r="L44" s="7">
-        <v>6441</v>
+        <v>6743</v>
       </c>
       <c r="M44" s="8">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2631,40 +2631,40 @@
         <v>31</v>
       </c>
       <c r="B45" s="7">
-        <v>35618</v>
+        <v>35466</v>
       </c>
       <c r="C45" s="7">
-        <v>5148</v>
+        <v>5833</v>
       </c>
       <c r="D45" s="8">
-        <v>14.5</v>
+        <v>16.4</v>
       </c>
       <c r="E45" s="7">
-        <v>35286</v>
+        <v>35168</v>
       </c>
       <c r="F45" s="7">
-        <v>5015</v>
+        <v>5665</v>
       </c>
       <c r="G45" s="8">
-        <v>14.2</v>
+        <v>16.1</v>
       </c>
       <c r="H45" s="7">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="I45" s="7">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="J45" s="8">
-        <v>26.4</v>
+        <v>49.7</v>
       </c>
       <c r="K45" s="7">
-        <v>65</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2672,39 +2672,39 @@
         <v>32</v>
       </c>
       <c r="B46" s="7">
-        <v>9436</v>
+        <v>9277</v>
       </c>
       <c r="C46" s="7">
-        <v>1497</v>
+        <v>1707</v>
       </c>
       <c r="D46" s="8">
-        <v>15.9</v>
+        <v>18.4</v>
       </c>
       <c r="E46" s="7">
-        <v>9404</v>
+        <v>9236</v>
       </c>
       <c r="F46" s="7">
-        <v>1483</v>
+        <v>1678</v>
       </c>
       <c r="G46" s="8">
-        <v>15.8</v>
+        <v>18.2</v>
       </c>
       <c r="H46" s="7">
-        <v>32</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2713,40 +2713,40 @@
         <v>33</v>
       </c>
       <c r="B47" s="7">
-        <v>26182</v>
+        <v>26189</v>
       </c>
       <c r="C47" s="7">
-        <v>3651</v>
+        <v>4127</v>
       </c>
       <c r="D47" s="8">
-        <v>13.9</v>
+        <v>15.8</v>
       </c>
       <c r="E47" s="7">
-        <v>25882</v>
+        <v>25932</v>
       </c>
       <c r="F47" s="7">
-        <v>3531</v>
+        <v>3987</v>
       </c>
       <c r="G47" s="8">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="H47" s="7">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="I47" s="7">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="J47" s="8">
-        <v>24.1</v>
+        <v>45.8</v>
       </c>
       <c r="K47" s="7">
-        <v>65</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2754,40 +2754,40 @@
         <v>34</v>
       </c>
       <c r="B48" s="7">
-        <v>100201</v>
+        <v>99931</v>
       </c>
       <c r="C48" s="7">
-        <v>10797</v>
+        <v>11998</v>
       </c>
       <c r="D48" s="8">
-        <v>10.8</v>
+        <v>12</v>
       </c>
       <c r="E48" s="7">
-        <v>79782</v>
+        <v>78834</v>
       </c>
       <c r="F48" s="7">
-        <v>6225</v>
+        <v>7113</v>
       </c>
       <c r="G48" s="8">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="H48" s="7">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="I48" s="7">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="J48" s="8">
-        <v>31.9</v>
+        <v>34.4</v>
       </c>
       <c r="K48" s="7">
-        <v>20083</v>
+        <v>20740</v>
       </c>
       <c r="L48" s="7">
-        <v>4464</v>
+        <v>4762</v>
       </c>
       <c r="M48" s="8">
-        <v>22.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2795,40 +2795,40 @@
         <v>35</v>
       </c>
       <c r="B49" s="7">
-        <v>14426</v>
+        <v>14295</v>
       </c>
       <c r="C49" s="7">
-        <v>2082</v>
+        <v>2388</v>
       </c>
       <c r="D49" s="8">
-        <v>14.4</v>
+        <v>16.7</v>
       </c>
       <c r="E49" s="7">
-        <v>11302</v>
+        <v>10965</v>
       </c>
       <c r="F49" s="7">
-        <v>940</v>
+        <v>1173</v>
       </c>
       <c r="G49" s="8">
-        <v>8.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="H49" s="7">
-        <v>47</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K49" s="7">
-        <v>3076</v>
+        <v>3306</v>
       </c>
       <c r="L49" s="7">
-        <v>1114</v>
+        <v>1202</v>
       </c>
       <c r="M49" s="8">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2836,40 +2836,40 @@
         <v>36</v>
       </c>
       <c r="B50" s="7">
-        <v>22477</v>
+        <v>22447</v>
       </c>
       <c r="C50" s="7">
-        <v>2818</v>
+        <v>3029</v>
       </c>
       <c r="D50" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="E50" s="7">
+        <v>16255</v>
+      </c>
+      <c r="F50" s="7">
+        <v>2026</v>
+      </c>
+      <c r="G50" s="8">
         <v>12.5</v>
       </c>
-      <c r="E50" s="7">
-        <v>16487</v>
-      </c>
-      <c r="F50" s="7">
-        <v>1940</v>
-      </c>
-      <c r="G50" s="8">
-        <v>11.8</v>
-      </c>
       <c r="H50" s="7">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="I50" s="7">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J50" s="8">
-        <v>31.2</v>
+        <v>41.2</v>
       </c>
       <c r="K50" s="7">
-        <v>5861</v>
+        <v>6042</v>
       </c>
       <c r="L50" s="7">
-        <v>837</v>
+        <v>941</v>
       </c>
       <c r="M50" s="8">
-        <v>14.3</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2877,40 +2877,40 @@
         <v>37</v>
       </c>
       <c r="B51" s="7">
-        <v>20947</v>
+        <v>21190</v>
       </c>
       <c r="C51" s="7">
-        <v>1949</v>
+        <v>2440</v>
       </c>
       <c r="D51" s="8">
-        <v>9.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="E51" s="7">
-        <v>18240</v>
+        <v>18255</v>
       </c>
       <c r="F51" s="7">
-        <v>1459</v>
+        <v>1806</v>
       </c>
       <c r="G51" s="8">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="H51" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I51" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="8">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="K51" s="7">
-        <v>2600</v>
+        <v>2826</v>
       </c>
       <c r="L51" s="7">
-        <v>458</v>
+        <v>602</v>
       </c>
       <c r="M51" s="8">
-        <v>17.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2918,40 +2918,40 @@
         <v>38</v>
       </c>
       <c r="B52" s="7">
-        <v>20461</v>
+        <v>20256</v>
       </c>
       <c r="C52" s="7">
-        <v>1694</v>
+        <v>1828</v>
       </c>
       <c r="D52" s="8">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="E52" s="7">
-        <v>17093</v>
+        <v>16954</v>
       </c>
       <c r="F52" s="7">
-        <v>1006</v>
+        <v>1063</v>
       </c>
       <c r="G52" s="8">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H52" s="7">
-        <v>45</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K52" s="7">
-        <v>3323</v>
+        <v>3248</v>
       </c>
       <c r="L52" s="7">
-        <v>681</v>
+        <v>752</v>
       </c>
       <c r="M52" s="8">
-        <v>20.5</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2959,40 +2959,40 @@
         <v>39</v>
       </c>
       <c r="B53" s="7">
-        <v>10980</v>
+        <v>10754</v>
       </c>
       <c r="C53" s="7">
-        <v>1065</v>
+        <v>1088</v>
       </c>
       <c r="D53" s="8">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E53" s="7">
-        <v>8553</v>
+        <v>8369</v>
       </c>
       <c r="F53" s="7">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="G53" s="8">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="H53" s="7">
-        <v>4</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K53" s="7">
-        <v>2423</v>
+        <v>2372</v>
       </c>
       <c r="L53" s="7">
-        <v>617</v>
+        <v>563</v>
       </c>
       <c r="M53" s="8">
-        <v>25.5</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3000,40 +3000,40 @@
         <v>40</v>
       </c>
       <c r="B54" s="7">
-        <v>10910</v>
+        <v>10990</v>
       </c>
       <c r="C54" s="7">
-        <v>1189</v>
+        <v>1224</v>
       </c>
       <c r="D54" s="8">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="E54" s="7">
-        <v>8107</v>
+        <v>8036</v>
       </c>
       <c r="F54" s="7">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="G54" s="8">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
       <c r="H54" s="7">
-        <v>4</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K54" s="7">
-        <v>2799</v>
+        <v>2946</v>
       </c>
       <c r="L54" s="7">
-        <v>757</v>
+        <v>701</v>
       </c>
       <c r="M54" s="8">
-        <v>27.1</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3041,40 +3041,40 @@
         <v>41</v>
       </c>
       <c r="B55" s="7">
-        <v>29765</v>
+        <v>30617</v>
       </c>
       <c r="C55" s="7">
-        <v>3063</v>
+        <v>3080</v>
       </c>
       <c r="D55" s="8">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="E55" s="7">
-        <v>19104</v>
+        <v>19515</v>
       </c>
       <c r="F55" s="7">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="G55" s="8">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H55" s="7">
-        <v>10</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K55" s="7">
-        <v>10652</v>
+        <v>11097</v>
       </c>
       <c r="L55" s="7">
-        <v>1914</v>
+        <v>1937</v>
       </c>
       <c r="M55" s="8">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3082,40 +3082,40 @@
         <v>42</v>
       </c>
       <c r="B56" s="7">
-        <v>17087</v>
+        <v>17697</v>
       </c>
       <c r="C56" s="7">
-        <v>1539</v>
+        <v>1517</v>
       </c>
       <c r="D56" s="8">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="E56" s="7">
-        <v>12087</v>
+        <v>12480</v>
       </c>
       <c r="F56" s="7">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G56" s="8">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H56" s="7">
-        <v>10</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K56" s="7">
-        <v>4990</v>
+        <v>5213</v>
       </c>
       <c r="L56" s="7">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="M56" s="8">
-        <v>17.4</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3123,16 +3123,16 @@
         <v>43</v>
       </c>
       <c r="B57" s="7">
-        <v>12679</v>
+        <v>12920</v>
       </c>
       <c r="C57" s="7">
-        <v>1524</v>
+        <v>1563</v>
       </c>
       <c r="D57" s="8">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E57" s="7">
-        <v>7017</v>
+        <v>7035</v>
       </c>
       <c r="F57" s="7">
         <v>480</v>
@@ -3140,20 +3140,20 @@
       <c r="G57" s="8">
         <v>6.8</v>
       </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>44</v>
+      <c r="I57" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="K57" s="7">
-        <v>5662</v>
+        <v>5884</v>
       </c>
       <c r="L57" s="7">
-        <v>1045</v>
+        <v>1083</v>
       </c>
       <c r="M57" s="8">
         <v>18.4</v>
@@ -3245,40 +3245,40 @@
         <v>50</v>
       </c>
       <c r="B61" s="7">
-        <v>128472</v>
+        <v>129943</v>
       </c>
       <c r="C61" s="7">
-        <v>13780</v>
+        <v>14843</v>
       </c>
       <c r="D61" s="8">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="E61" s="7">
-        <v>83698</v>
+        <v>83918</v>
       </c>
       <c r="F61" s="7">
-        <v>6554</v>
+        <v>7294</v>
       </c>
       <c r="G61" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J61" s="11" t="s">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K61" s="7">
-        <v>44774</v>
+        <v>46024</v>
       </c>
       <c r="L61" s="7">
-        <v>7226</v>
+        <v>7548</v>
       </c>
       <c r="M61" s="8">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3286,40 +3286,40 @@
         <v>31</v>
       </c>
       <c r="B62" s="7">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C62" s="7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D62" s="8">
-        <v>14.6</v>
+        <v>30.9</v>
       </c>
       <c r="E62" s="7">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F62" s="7">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G62" s="8">
-        <v>13.1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J62" s="11" t="s">
+        <v>27.8</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K62" s="7">
-        <v>3</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3327,40 +3327,40 @@
         <v>60</v>
       </c>
       <c r="B63" s="7">
-        <v>5250</v>
+        <v>5343</v>
       </c>
       <c r="C63" s="7">
-        <v>1212</v>
+        <v>1259</v>
       </c>
       <c r="D63" s="8">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="E63" s="7">
-        <v>2387</v>
+        <v>2404</v>
       </c>
       <c r="F63" s="7">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="G63" s="8">
-        <v>18.2</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63" s="11" t="s">
+        <v>19.7</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K63" s="7">
-        <v>2862</v>
+        <v>2940</v>
       </c>
       <c r="L63" s="7">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="M63" s="8">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3368,40 +3368,40 @@
         <v>61</v>
       </c>
       <c r="B64" s="7">
-        <v>20426</v>
+        <v>20655</v>
       </c>
       <c r="C64" s="7">
-        <v>2428</v>
+        <v>2472</v>
       </c>
       <c r="D64" s="8">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E64" s="7">
-        <v>12690</v>
+        <v>12795</v>
       </c>
       <c r="F64" s="7">
-        <v>1726</v>
+        <v>1860</v>
       </c>
       <c r="G64" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J64" s="11" t="s">
+        <v>14.5</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K64" s="7">
-        <v>7737</v>
+        <v>7860</v>
       </c>
       <c r="L64" s="7">
-        <v>702</v>
+        <v>612</v>
       </c>
       <c r="M64" s="8">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3409,40 +3409,40 @@
         <v>62</v>
       </c>
       <c r="B65" s="7">
-        <v>21437</v>
+        <v>22105</v>
       </c>
       <c r="C65" s="7">
-        <v>2041</v>
+        <v>2411</v>
       </c>
       <c r="D65" s="8">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="E65" s="7">
-        <v>17044</v>
+        <v>17293</v>
       </c>
       <c r="F65" s="7">
-        <v>1504</v>
+        <v>1742</v>
       </c>
       <c r="G65" s="8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J65" s="11" t="s">
+        <v>10.1</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K65" s="7">
-        <v>4393</v>
+        <v>4812</v>
       </c>
       <c r="L65" s="7">
-        <v>538</v>
+        <v>668</v>
       </c>
       <c r="M65" s="8">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3450,40 +3450,40 @@
         <v>63</v>
       </c>
       <c r="B66" s="7">
-        <v>21667</v>
+        <v>21666</v>
       </c>
       <c r="C66" s="7">
-        <v>1815</v>
+        <v>2069</v>
       </c>
       <c r="D66" s="8">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="E66" s="7">
-        <v>16234</v>
+        <v>16287</v>
       </c>
       <c r="F66" s="7">
-        <v>979</v>
+        <v>1092</v>
       </c>
       <c r="G66" s="8">
-        <v>6</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J66" s="11" t="s">
+        <v>6.7</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K66" s="7">
-        <v>5433</v>
+        <v>5379</v>
       </c>
       <c r="L66" s="7">
-        <v>835</v>
+        <v>977</v>
       </c>
       <c r="M66" s="8">
-        <v>15.4</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3491,40 +3491,40 @@
         <v>64</v>
       </c>
       <c r="B67" s="7">
-        <v>12114</v>
+        <v>11821</v>
       </c>
       <c r="C67" s="7">
-        <v>1225</v>
+        <v>1290</v>
       </c>
       <c r="D67" s="8">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="E67" s="7">
-        <v>8152</v>
+        <v>7980</v>
       </c>
       <c r="F67" s="7">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="G67" s="8">
-        <v>5.1</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J67" s="11" t="s">
+        <v>6.2</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K67" s="7">
-        <v>3962</v>
+        <v>3841</v>
       </c>
       <c r="L67" s="7">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="M67" s="8">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3532,40 +3532,40 @@
         <v>65</v>
       </c>
       <c r="B68" s="7">
-        <v>12489</v>
+        <v>12517</v>
       </c>
       <c r="C68" s="7">
-        <v>1436</v>
+        <v>1604</v>
       </c>
       <c r="D68" s="8">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="E68" s="7">
-        <v>7815</v>
+        <v>7648</v>
       </c>
       <c r="F68" s="7">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="G68" s="8">
-        <v>5.4</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J68" s="11" t="s">
+        <v>6.5</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K68" s="7">
-        <v>4674</v>
+        <v>4869</v>
       </c>
       <c r="L68" s="7">
-        <v>1018</v>
+        <v>1104</v>
       </c>
       <c r="M68" s="8">
-        <v>21.8</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3573,40 +3573,40 @@
         <v>41</v>
       </c>
       <c r="B69" s="7">
-        <v>34933</v>
+        <v>35694</v>
       </c>
       <c r="C69" s="7">
-        <v>3600</v>
+        <v>3694</v>
       </c>
       <c r="D69" s="8">
         <v>10.3</v>
       </c>
       <c r="E69" s="7">
-        <v>19222</v>
+        <v>19378</v>
       </c>
       <c r="F69" s="7">
-        <v>1058</v>
+        <v>1094</v>
       </c>
       <c r="G69" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J69" s="11" t="s">
+        <v>5.6</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K69" s="7">
-        <v>15710</v>
+        <v>16316</v>
       </c>
       <c r="L69" s="7">
-        <v>2542</v>
+        <v>2601</v>
       </c>
       <c r="M69" s="8">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3614,40 +3614,40 @@
         <v>66</v>
       </c>
       <c r="B70" s="7">
-        <v>14669</v>
+        <v>15251</v>
       </c>
       <c r="C70" s="7">
-        <v>2367</v>
+        <v>2395</v>
       </c>
       <c r="D70" s="8">
-        <v>16.1</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="11" t="s">
+        <v>15.7</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K70" s="7">
-        <v>14669</v>
+        <v>15251</v>
       </c>
       <c r="L70" s="7">
-        <v>2367</v>
+        <v>2395</v>
       </c>
       <c r="M70" s="8">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3655,40 +3655,40 @@
         <v>67</v>
       </c>
       <c r="B71" s="7">
-        <v>4969</v>
+        <v>5178</v>
       </c>
       <c r="C71" s="7">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="D71" s="8">
-        <v>14.4</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J71" s="11" t="s">
+        <v>14.2</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K71" s="7">
-        <v>4969</v>
+        <v>5178</v>
       </c>
       <c r="L71" s="7">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="M71" s="8">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3696,40 +3696,40 @@
         <v>68</v>
       </c>
       <c r="B72" s="7">
-        <v>9701</v>
+        <v>10073</v>
       </c>
       <c r="C72" s="7">
-        <v>1649</v>
+        <v>1660</v>
       </c>
       <c r="D72" s="8">
-        <v>17</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J72" s="11" t="s">
+        <v>16.5</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K72" s="7">
-        <v>9701</v>
+        <v>10073</v>
       </c>
       <c r="L72" s="7">
-        <v>1649</v>
+        <v>1660</v>
       </c>
       <c r="M72" s="8">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
